--- a/biology/Zoologie/Heterandria/Heterandria.xlsx
+++ b/biology/Zoologie/Heterandria/Heterandria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Heterandria regroupe plusieurs espèces de poissons de la famille des Poeciliidae.
 Le genre Pseudoxiphophorus  Bleeker, 1860 est un synonyme non valide, il n'était représenté que par Pseudoxiphophorus bimaculatus (Heckel, 1848) dont l'appellation officielle est H. bimaculata.
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Heterandria anzuetoi - Rosen et Bailey in Rosen, 1979
 Heterandria attenuata - Rosen et Bailey in Rosen, 1979
